--- a/COMdata/COMDATEXC.xlsx
+++ b/COMdata/COMDATEXC.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TY\selenium\advanceSelenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\VTIGER\SDET_HYD\COMdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A34E61-953E-484C-89DF-06EA99691F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE36283D-C6A0-46A8-9394-2E5EC280DD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{5AB37534-DE5E-4586-858D-55035FAC4A48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5AB37534-DE5E-4586-858D-55035FAC4A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -425,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC88F64-CD11-4997-90A6-23F08348C69A}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -500,4 +501,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5D034-ECFF-4E37-8FA9-572DEB89E7F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>